--- a/data/pca/factorExposure/factorExposure_2009-04-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-04-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01755778895074121</v>
+        <v>0.01694692624218108</v>
       </c>
       <c r="C2">
-        <v>0.00205892622389198</v>
+        <v>0.001422926684848024</v>
       </c>
       <c r="D2">
-        <v>-0.01042900448862694</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.01093094319692173</v>
+      </c>
+      <c r="E2">
+        <v>-0.001287686082613696</v>
+      </c>
+      <c r="F2">
+        <v>-0.01905073985881106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08592465357914424</v>
+        <v>0.08937478094043348</v>
       </c>
       <c r="C4">
-        <v>0.01996656878008826</v>
+        <v>0.01565767121875856</v>
       </c>
       <c r="D4">
-        <v>-0.08154215503404087</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08440710662531813</v>
+      </c>
+      <c r="E4">
+        <v>-0.03458657229532187</v>
+      </c>
+      <c r="F4">
+        <v>0.04321102412498204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.000113351297130197</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-9.371762751538502e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.000293137798847547</v>
+      </c>
+      <c r="E5">
+        <v>9.841164297523065e-05</v>
+      </c>
+      <c r="F5">
+        <v>0.0006772673818728148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1590842452608381</v>
+        <v>0.1658772798248737</v>
       </c>
       <c r="C6">
-        <v>0.03583551997274074</v>
+        <v>0.03437120459950233</v>
       </c>
       <c r="D6">
-        <v>0.0258492222237478</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01677728724437197</v>
+      </c>
+      <c r="E6">
+        <v>-0.01736858964995589</v>
+      </c>
+      <c r="F6">
+        <v>0.0573511371480043</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05657149960703509</v>
+        <v>0.06074409333658286</v>
       </c>
       <c r="C7">
-        <v>0.00198085454997863</v>
+        <v>-0.001136900375599939</v>
       </c>
       <c r="D7">
-        <v>-0.0481201288370435</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05320194988353453</v>
+      </c>
+      <c r="E7">
+        <v>-0.02158548924753469</v>
+      </c>
+      <c r="F7">
+        <v>0.05115562387380983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05817971431846539</v>
+        <v>0.05485694811767625</v>
       </c>
       <c r="C8">
-        <v>-0.009783793318263333</v>
+        <v>-0.01154195864216469</v>
       </c>
       <c r="D8">
-        <v>-0.02884234826963246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03149344362858009</v>
+      </c>
+      <c r="E8">
+        <v>-0.01375267837545495</v>
+      </c>
+      <c r="F8">
+        <v>-0.03406324061934906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06721031464528993</v>
+        <v>0.07005642269267291</v>
       </c>
       <c r="C9">
-        <v>0.01584238760065562</v>
+        <v>0.0114622130356362</v>
       </c>
       <c r="D9">
-        <v>-0.08540235378338962</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08847157963311487</v>
+      </c>
+      <c r="E9">
+        <v>-0.03335834553502676</v>
+      </c>
+      <c r="F9">
+        <v>0.0642099581600032</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.09141017955284154</v>
+        <v>0.08936834441530238</v>
       </c>
       <c r="C10">
-        <v>0.02206095385990937</v>
+        <v>0.0245407522410731</v>
       </c>
       <c r="D10">
-        <v>0.1647951008252455</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1551355520509856</v>
+      </c>
+      <c r="E10">
+        <v>0.03865702808581981</v>
+      </c>
+      <c r="F10">
+        <v>-0.07672563836284069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08816159102650176</v>
+        <v>0.08533719990861963</v>
       </c>
       <c r="C11">
-        <v>0.01742765437921553</v>
+        <v>0.01249883986956882</v>
       </c>
       <c r="D11">
-        <v>-0.1189149024859632</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1237835126868404</v>
+      </c>
+      <c r="E11">
+        <v>-0.06036038957432589</v>
+      </c>
+      <c r="F11">
+        <v>0.01549484740835505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09313583378332543</v>
+        <v>0.08841128685565765</v>
       </c>
       <c r="C12">
-        <v>0.01543541503888267</v>
+        <v>0.009952908633637726</v>
       </c>
       <c r="D12">
-        <v>-0.1245273646854768</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.136983534945609</v>
+      </c>
+      <c r="E12">
+        <v>-0.06349577441776828</v>
+      </c>
+      <c r="F12">
+        <v>0.01852477128229173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04485067421082243</v>
+        <v>0.04509481369255545</v>
       </c>
       <c r="C13">
-        <v>0.007512205691412532</v>
+        <v>0.004113573131676131</v>
       </c>
       <c r="D13">
-        <v>-0.05004516140029974</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05759607082040326</v>
+      </c>
+      <c r="E13">
+        <v>-0.00114243535994905</v>
+      </c>
+      <c r="F13">
+        <v>0.01597534101303925</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01796718687105976</v>
+        <v>0.02120544543914697</v>
       </c>
       <c r="C14">
-        <v>0.01451547616555081</v>
+        <v>0.01358371630108349</v>
       </c>
       <c r="D14">
-        <v>-0.03149613342159178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03449261123942211</v>
+      </c>
+      <c r="E14">
+        <v>-0.02391342736517491</v>
+      </c>
+      <c r="F14">
+        <v>0.0218774277067453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03410714211049121</v>
+        <v>0.03482515298403928</v>
       </c>
       <c r="C15">
-        <v>0.008464114501732912</v>
+        <v>0.006653786350827186</v>
       </c>
       <c r="D15">
-        <v>-0.05039594667463353</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.05083219405916883</v>
+      </c>
+      <c r="E15">
+        <v>-0.0157063225157769</v>
+      </c>
+      <c r="F15">
+        <v>0.03035470714587299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.0698002622459544</v>
+        <v>0.06867396815105846</v>
       </c>
       <c r="C16">
-        <v>0.006507629776990572</v>
+        <v>0.001570842792448187</v>
       </c>
       <c r="D16">
-        <v>-0.1203945683354315</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1319015710163846</v>
+      </c>
+      <c r="E16">
+        <v>-0.07367081137597416</v>
+      </c>
+      <c r="F16">
+        <v>0.0169332036302609</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.002288112462671025</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.001082005630735103</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.001915833375142269</v>
+      </c>
+      <c r="E17">
+        <v>-0.004738974220803768</v>
+      </c>
+      <c r="F17">
+        <v>-0.004171383004624044</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.0289991865570386</v>
+        <v>0.04583837878892948</v>
       </c>
       <c r="C18">
-        <v>-0.0002342467671870552</v>
+        <v>-0.0002002760561418436</v>
       </c>
       <c r="D18">
-        <v>-0.02189628714849824</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.02093569634532925</v>
+      </c>
+      <c r="E18">
+        <v>0.004121527001799095</v>
+      </c>
+      <c r="F18">
+        <v>-0.01590125547164868</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06268834568459553</v>
+        <v>0.06184555629461897</v>
       </c>
       <c r="C20">
-        <v>0.00541751011453888</v>
+        <v>0.002407019231102334</v>
       </c>
       <c r="D20">
-        <v>-0.07916835837899655</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.08302228811771081</v>
+      </c>
+      <c r="E20">
+        <v>-0.06877336046975339</v>
+      </c>
+      <c r="F20">
+        <v>0.0353563224347349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04022202769979581</v>
+        <v>0.04249824741621629</v>
       </c>
       <c r="C21">
-        <v>0.009893516071301713</v>
+        <v>0.007350169910759157</v>
       </c>
       <c r="D21">
-        <v>-0.03955270370043499</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03945438076754703</v>
+      </c>
+      <c r="E21">
+        <v>-0.002122093751307066</v>
+      </c>
+      <c r="F21">
+        <v>-0.01921203655703787</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04468557229938221</v>
+        <v>0.04458628542860441</v>
       </c>
       <c r="C22">
-        <v>0.003757195041003365</v>
+        <v>0.002479079729180276</v>
       </c>
       <c r="D22">
-        <v>-0.00247755653801063</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.011668772746126</v>
+      </c>
+      <c r="E22">
+        <v>-0.03038485227418132</v>
+      </c>
+      <c r="F22">
+        <v>-0.1009049126046497</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04469416015301154</v>
+        <v>0.04459361460192439</v>
       </c>
       <c r="C23">
-        <v>0.003759466748252761</v>
+        <v>0.002481248917763663</v>
       </c>
       <c r="D23">
-        <v>-0.00246869908075477</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.01166195364050647</v>
+      </c>
+      <c r="E23">
+        <v>-0.03039218018341098</v>
+      </c>
+      <c r="F23">
+        <v>-0.1009460612910965</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.077500023694072</v>
+        <v>0.07507632227840964</v>
       </c>
       <c r="C24">
-        <v>0.007372610589497895</v>
+        <v>0.002691098565642966</v>
       </c>
       <c r="D24">
-        <v>-0.1224643897923498</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1258945184285754</v>
+      </c>
+      <c r="E24">
+        <v>-0.0586848687259397</v>
+      </c>
+      <c r="F24">
+        <v>0.02624417873359658</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08220097862289445</v>
+        <v>0.07959426107684273</v>
       </c>
       <c r="C25">
-        <v>0.009871923269040602</v>
+        <v>0.005555900824560769</v>
       </c>
       <c r="D25">
-        <v>-0.1102023308184713</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.113949429762306</v>
+      </c>
+      <c r="E25">
+        <v>-0.04529519274086578</v>
+      </c>
+      <c r="F25">
+        <v>0.02186594041973481</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05597412777089404</v>
+        <v>0.06100251679038122</v>
       </c>
       <c r="C26">
-        <v>0.01867094346966374</v>
+        <v>0.01593408649742796</v>
       </c>
       <c r="D26">
-        <v>-0.04528349155991587</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0522601802461563</v>
+      </c>
+      <c r="E26">
+        <v>-0.03135176909281204</v>
+      </c>
+      <c r="F26">
+        <v>-0.008490038284360728</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1468967629932184</v>
+        <v>0.152285263496108</v>
       </c>
       <c r="C28">
-        <v>0.02481269919444598</v>
+        <v>0.02984712155520432</v>
       </c>
       <c r="D28">
-        <v>0.2497548680679496</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2473431146289894</v>
+      </c>
+      <c r="E28">
+        <v>0.0623592802239288</v>
+      </c>
+      <c r="F28">
+        <v>0.01904966889496519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02529938385404894</v>
+        <v>0.02749035964453362</v>
       </c>
       <c r="C29">
-        <v>0.009763369592582205</v>
+        <v>0.009025279076158589</v>
       </c>
       <c r="D29">
-        <v>-0.03063742736111935</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03260048626224433</v>
+      </c>
+      <c r="E29">
+        <v>-0.017799610636976</v>
+      </c>
+      <c r="F29">
+        <v>-0.01780792401993147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05281371999396129</v>
+        <v>0.05169173249245205</v>
       </c>
       <c r="C30">
-        <v>0.006157341600565372</v>
+        <v>0.002404736437505859</v>
       </c>
       <c r="D30">
-        <v>-0.08054660117021492</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08579930697264014</v>
+      </c>
+      <c r="E30">
+        <v>-0.02188227049107649</v>
+      </c>
+      <c r="F30">
+        <v>0.1126626932470345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05099821653492125</v>
+        <v>0.05160688745506874</v>
       </c>
       <c r="C31">
-        <v>0.01881726388138685</v>
+        <v>0.0169155754465682</v>
       </c>
       <c r="D31">
-        <v>-0.02551223346875081</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02804361373748382</v>
+      </c>
+      <c r="E31">
+        <v>-0.03091528581650265</v>
+      </c>
+      <c r="F31">
+        <v>-0.01107928241265915</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04540301639910484</v>
+        <v>0.05016525193939036</v>
       </c>
       <c r="C32">
-        <v>0.001986894017419848</v>
+        <v>-0.001007179023352329</v>
       </c>
       <c r="D32">
-        <v>-0.03306286474934055</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03695430286723922</v>
+      </c>
+      <c r="E32">
+        <v>-0.03245634619649442</v>
+      </c>
+      <c r="F32">
+        <v>-0.001091854141925584</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08762062037961699</v>
+        <v>0.08858208916283074</v>
       </c>
       <c r="C33">
-        <v>0.01384871627957986</v>
+        <v>0.008560493220813353</v>
       </c>
       <c r="D33">
-        <v>-0.09477839756482577</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1064672983007452</v>
+      </c>
+      <c r="E33">
+        <v>-0.06064697641722118</v>
+      </c>
+      <c r="F33">
+        <v>0.02644791228632833</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06515427943177619</v>
+        <v>0.06487377486553587</v>
       </c>
       <c r="C34">
-        <v>0.01552088909642971</v>
+        <v>0.01099221776108178</v>
       </c>
       <c r="D34">
-        <v>-0.1010225297625494</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1124841139903744</v>
+      </c>
+      <c r="E34">
+        <v>-0.04602257651370583</v>
+      </c>
+      <c r="F34">
+        <v>0.04072518276546602</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02685701123497359</v>
+        <v>0.02830194551285967</v>
       </c>
       <c r="C35">
-        <v>0.005100413425168646</v>
+        <v>0.004507696194407326</v>
       </c>
       <c r="D35">
-        <v>-0.008653710650507497</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01177554534922064</v>
+      </c>
+      <c r="E35">
+        <v>-0.01816846277938496</v>
+      </c>
+      <c r="F35">
+        <v>-0.002265467197556072</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02324485238902258</v>
+        <v>0.02789081787814253</v>
       </c>
       <c r="C36">
-        <v>0.008315572339796677</v>
+        <v>0.007387367446178609</v>
       </c>
       <c r="D36">
-        <v>-0.03996511628531755</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04245336396587695</v>
+      </c>
+      <c r="E36">
+        <v>-0.02082693519114343</v>
+      </c>
+      <c r="F36">
+        <v>0.02036019332734362</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.002916745652234306</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0009029246856256316</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003028120792075856</v>
+      </c>
+      <c r="E37">
+        <v>-0.001215770311063378</v>
+      </c>
+      <c r="F37">
+        <v>-0.0004227040429146994</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1032835204298529</v>
+        <v>0.09433530798350677</v>
       </c>
       <c r="C39">
-        <v>0.02221943734781531</v>
+        <v>0.0162946232793336</v>
       </c>
       <c r="D39">
-        <v>-0.1558468520845344</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1545891697947978</v>
+      </c>
+      <c r="E39">
+        <v>-0.07417409470015557</v>
+      </c>
+      <c r="F39">
+        <v>0.005603558434617845</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.04340985000969864</v>
+        <v>0.04845327763910686</v>
       </c>
       <c r="C40">
-        <v>0.01181956757748556</v>
+        <v>0.01029252508635253</v>
       </c>
       <c r="D40">
-        <v>-0.03281727382967563</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03945992173540435</v>
+      </c>
+      <c r="E40">
+        <v>-0.00403279052935264</v>
+      </c>
+      <c r="F40">
+        <v>-0.0230660372980303</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02580076101202658</v>
+        <v>0.02817246192648404</v>
       </c>
       <c r="C41">
-        <v>0.008291897381827812</v>
+        <v>0.007901121305233239</v>
       </c>
       <c r="D41">
-        <v>-0.01179201647784691</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01321894797379891</v>
+      </c>
+      <c r="E41">
+        <v>-0.01274292094742979</v>
+      </c>
+      <c r="F41">
+        <v>-0.01258609761537517</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04054975977190823</v>
+        <v>0.03938792316378142</v>
       </c>
       <c r="C43">
-        <v>0.009120736232056859</v>
+        <v>0.008222551406884352</v>
       </c>
       <c r="D43">
-        <v>-0.02211222372091019</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02296894333958717</v>
+      </c>
+      <c r="E43">
+        <v>-0.02792955993463996</v>
+      </c>
+      <c r="F43">
+        <v>-0.02438284636172257</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06441005434104968</v>
+        <v>0.07156407923552272</v>
       </c>
       <c r="C44">
-        <v>0.023164511155256</v>
+        <v>0.01946837989782027</v>
       </c>
       <c r="D44">
-        <v>-0.07840951780315986</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.08703084168361752</v>
+      </c>
+      <c r="E44">
+        <v>-0.07839495754745392</v>
+      </c>
+      <c r="F44">
+        <v>0.2172688807326665</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.0001190334865783509</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>5.932855337332746e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>8.443442258374722e-05</v>
+      </c>
+      <c r="E45">
+        <v>0.0002643560228925143</v>
+      </c>
+      <c r="F45">
+        <v>0.0001602931664471959</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.0227237346398447</v>
+        <v>0.02520629252137978</v>
       </c>
       <c r="C46">
-        <v>0.005179802001393762</v>
+        <v>0.004287694154903005</v>
       </c>
       <c r="D46">
-        <v>-0.01531388883650574</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01815936888077683</v>
+      </c>
+      <c r="E46">
+        <v>-0.03615832055154494</v>
+      </c>
+      <c r="F46">
+        <v>-0.02359806911750232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05440185567650944</v>
+        <v>0.05315047628539785</v>
       </c>
       <c r="C47">
-        <v>0.007350373741356248</v>
+        <v>0.005820702557934187</v>
       </c>
       <c r="D47">
-        <v>-0.0107963169935613</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01338892655157442</v>
+      </c>
+      <c r="E47">
+        <v>-0.02442496144258855</v>
+      </c>
+      <c r="F47">
+        <v>-0.04578423795555922</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04762920182568493</v>
+        <v>0.0514295602218225</v>
       </c>
       <c r="C48">
-        <v>0.005607797756298299</v>
+        <v>0.003205391112800154</v>
       </c>
       <c r="D48">
-        <v>-0.05209541120092426</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05411637953843836</v>
+      </c>
+      <c r="E48">
+        <v>-0.001228537512008559</v>
+      </c>
+      <c r="F48">
+        <v>0.01656909531040671</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1953029968504969</v>
+        <v>0.1981067146414031</v>
       </c>
       <c r="C49">
-        <v>0.02796399168987844</v>
+        <v>0.02444580676833969</v>
       </c>
       <c r="D49">
-        <v>0.01087912037805087</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.005379079211856259</v>
+      </c>
+      <c r="E49">
+        <v>-0.0225800353655141</v>
+      </c>
+      <c r="F49">
+        <v>0.0578453770323566</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04932467427479267</v>
+        <v>0.05209964714632532</v>
       </c>
       <c r="C50">
-        <v>0.01453539656617367</v>
+        <v>0.0131349067212977</v>
       </c>
       <c r="D50">
-        <v>-0.02453114551090197</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02693697075253043</v>
+      </c>
+      <c r="E50">
+        <v>-0.03212908480069958</v>
+      </c>
+      <c r="F50">
+        <v>0.006770683775712862</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1518690311068485</v>
+        <v>0.1454011041011647</v>
       </c>
       <c r="C52">
-        <v>0.02483437344328959</v>
+        <v>0.02128248629180665</v>
       </c>
       <c r="D52">
-        <v>-0.04315711200268212</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04576394203411965</v>
+      </c>
+      <c r="E52">
+        <v>-0.03388031781408939</v>
+      </c>
+      <c r="F52">
+        <v>0.03807064260424373</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1748268169150112</v>
+        <v>0.167578590543202</v>
       </c>
       <c r="C53">
-        <v>0.02748857541827563</v>
+        <v>0.02528097846806728</v>
       </c>
       <c r="D53">
-        <v>-0.004197953386419394</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.007164586966431862</v>
+      </c>
+      <c r="E53">
+        <v>-0.04116607260638654</v>
+      </c>
+      <c r="F53">
+        <v>0.08407652798426288</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01450200827472341</v>
+        <v>0.01809883748016166</v>
       </c>
       <c r="C54">
-        <v>0.01201720831253875</v>
+        <v>0.01132646380825919</v>
       </c>
       <c r="D54">
-        <v>-0.02855971544378987</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0281665615502524</v>
+      </c>
+      <c r="E54">
+        <v>-0.02105902071458001</v>
+      </c>
+      <c r="F54">
+        <v>-0.002698175522506508</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1188537328594407</v>
+        <v>0.1166039249869333</v>
       </c>
       <c r="C55">
-        <v>0.02401786572200433</v>
+        <v>0.02199578925487732</v>
       </c>
       <c r="D55">
-        <v>-0.003595996269820047</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01144610115911996</v>
+      </c>
+      <c r="E55">
+        <v>-0.04051224421015408</v>
+      </c>
+      <c r="F55">
+        <v>0.02924893909174593</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1806820327673882</v>
+        <v>0.1746760050034484</v>
       </c>
       <c r="C56">
-        <v>0.02573268475451659</v>
+        <v>0.02377156390813101</v>
       </c>
       <c r="D56">
-        <v>0.004773349377657899</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0005909511459946009</v>
+      </c>
+      <c r="E56">
+        <v>-0.03990927951984443</v>
+      </c>
+      <c r="F56">
+        <v>0.04415966804895327</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04539898842196103</v>
+        <v>0.04422268794670282</v>
       </c>
       <c r="C58">
-        <v>0.004300630087323788</v>
+        <v>0.0003494696248965185</v>
       </c>
       <c r="D58">
-        <v>-0.07234494145291681</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.08111798697308825</v>
+      </c>
+      <c r="E58">
+        <v>-0.03993254048601901</v>
+      </c>
+      <c r="F58">
+        <v>-0.0462266480185099</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1686563070141357</v>
+        <v>0.1738267492978509</v>
       </c>
       <c r="C59">
-        <v>0.02539733316128021</v>
+        <v>0.02932201950021021</v>
       </c>
       <c r="D59">
-        <v>0.213562573664996</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2120437770918914</v>
+      </c>
+      <c r="E59">
+        <v>0.05734532939564688</v>
+      </c>
+      <c r="F59">
+        <v>-0.06627726802956566</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2283247605236966</v>
+        <v>0.222264400085728</v>
       </c>
       <c r="C60">
-        <v>0.008358357087651945</v>
+        <v>0.003797929917870669</v>
       </c>
       <c r="D60">
-        <v>-0.02443167803026592</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.02521440342649633</v>
+      </c>
+      <c r="E60">
+        <v>0.01091038753826864</v>
+      </c>
+      <c r="F60">
+        <v>-0.009725581534425378</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.07546987448944471</v>
+        <v>0.07148846161609376</v>
       </c>
       <c r="C61">
-        <v>0.01607663805053709</v>
+        <v>0.01109299018108725</v>
       </c>
       <c r="D61">
-        <v>-0.116791285448296</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1198790062574997</v>
+      </c>
+      <c r="E61">
+        <v>-0.0497751309940444</v>
+      </c>
+      <c r="F61">
+        <v>-0.004881322278829353</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1715773713057632</v>
+        <v>0.1673109751860905</v>
       </c>
       <c r="C62">
-        <v>0.02858635686779633</v>
+        <v>0.02592479719988375</v>
       </c>
       <c r="D62">
-        <v>-0.001826286217740895</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.007490659405939118</v>
+      </c>
+      <c r="E62">
+        <v>-0.04244774279437067</v>
+      </c>
+      <c r="F62">
+        <v>0.02578246925994026</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04264157245433157</v>
+        <v>0.04755105944460941</v>
       </c>
       <c r="C63">
-        <v>0.005999149366916348</v>
+        <v>0.003417468002515277</v>
       </c>
       <c r="D63">
-        <v>-0.06077433559709616</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06845886909655872</v>
+      </c>
+      <c r="E63">
+        <v>-0.02922556373276654</v>
+      </c>
+      <c r="F63">
+        <v>-0.004135370920693229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1141969055739188</v>
+        <v>0.1112861708456877</v>
       </c>
       <c r="C64">
-        <v>0.01907765942290453</v>
+        <v>0.01554108162096264</v>
       </c>
       <c r="D64">
-        <v>-0.04396736643767335</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04829936888551319</v>
+      </c>
+      <c r="E64">
+        <v>-0.03507120228949831</v>
+      </c>
+      <c r="F64">
+        <v>0.01886697813815986</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1504238675767099</v>
+        <v>0.1561151430531676</v>
       </c>
       <c r="C65">
-        <v>0.0418769074600348</v>
+        <v>0.04071759869909072</v>
       </c>
       <c r="D65">
-        <v>0.04749638457173813</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0369574856615476</v>
+      </c>
+      <c r="E65">
+        <v>-0.01151573540927632</v>
+      </c>
+      <c r="F65">
+        <v>0.05868879647977306</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1256308902513932</v>
+        <v>0.1142556367492596</v>
       </c>
       <c r="C66">
-        <v>0.02136109340991791</v>
+        <v>0.01481856252574285</v>
       </c>
       <c r="D66">
-        <v>-0.1402425190869142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1444491637198881</v>
+      </c>
+      <c r="E66">
+        <v>-0.0772101881116895</v>
+      </c>
+      <c r="F66">
+        <v>0.008851733230193708</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06020253286875853</v>
+        <v>0.05321491323061276</v>
       </c>
       <c r="C67">
-        <v>0.006527160973045676</v>
+        <v>0.004018550901368125</v>
       </c>
       <c r="D67">
-        <v>-0.05054365998648205</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05409769097309994</v>
+      </c>
+      <c r="E67">
+        <v>-0.02398178947553327</v>
+      </c>
+      <c r="F67">
+        <v>-0.08550631677838121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1178030299884096</v>
+        <v>0.1249061593104907</v>
       </c>
       <c r="C68">
-        <v>0.03354863072907893</v>
+        <v>0.03949645404037049</v>
       </c>
       <c r="D68">
-        <v>0.2533883685550531</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2525220068136429</v>
+      </c>
+      <c r="E68">
+        <v>0.08975019621282898</v>
+      </c>
+      <c r="F68">
+        <v>0.03014923824551884</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04005071710914244</v>
+        <v>0.03919072438546308</v>
       </c>
       <c r="C69">
-        <v>0.003432483545341699</v>
+        <v>0.002456902608469242</v>
       </c>
       <c r="D69">
-        <v>-0.009005402542335533</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01012662025869491</v>
+      </c>
+      <c r="E69">
+        <v>-0.02946578594252989</v>
+      </c>
+      <c r="F69">
+        <v>-0.02186486999146314</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06872195160496887</v>
+        <v>0.06974691849193036</v>
       </c>
       <c r="C70">
-        <v>-0.02308576508615061</v>
+        <v>-0.02475246208500383</v>
       </c>
       <c r="D70">
-        <v>-0.03635648020203634</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.035317918751562</v>
+      </c>
+      <c r="E70">
+        <v>0.03816124903433116</v>
+      </c>
+      <c r="F70">
+        <v>-0.3787277349181046</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.137238438689971</v>
+        <v>0.1452088698369693</v>
       </c>
       <c r="C71">
-        <v>0.03893262584478283</v>
+        <v>0.04472044656098603</v>
       </c>
       <c r="D71">
-        <v>0.2668672417780548</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2617324807815493</v>
+      </c>
+      <c r="E71">
+        <v>0.09900886170457095</v>
+      </c>
+      <c r="F71">
+        <v>0.03204200852837591</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1380759370446619</v>
+        <v>0.1438498150569076</v>
       </c>
       <c r="C72">
-        <v>0.03230992789123086</v>
+        <v>0.03158410838217572</v>
       </c>
       <c r="D72">
-        <v>-0.001846608486052271</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0002283602454348452</v>
+      </c>
+      <c r="E72">
+        <v>-0.04524039344356107</v>
+      </c>
+      <c r="F72">
+        <v>0.03575472767950131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.196988198746155</v>
+        <v>0.2010887827013171</v>
       </c>
       <c r="C73">
-        <v>0.02167992729733793</v>
+        <v>0.01660016677947907</v>
       </c>
       <c r="D73">
-        <v>-0.0089064410108019</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.0163659349541681</v>
+      </c>
+      <c r="E73">
+        <v>-0.06508147700578033</v>
+      </c>
+      <c r="F73">
+        <v>0.01804032295471424</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.08852502932853219</v>
+        <v>0.08844322029024852</v>
       </c>
       <c r="C74">
-        <v>0.01636373625883884</v>
+        <v>0.01458264048585748</v>
       </c>
       <c r="D74">
-        <v>-0.01039962829526169</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01587474774548693</v>
+      </c>
+      <c r="E74">
+        <v>-0.05016591038615051</v>
+      </c>
+      <c r="F74">
+        <v>0.04788655583976449</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1302828124299852</v>
+        <v>0.1224624217057577</v>
       </c>
       <c r="C75">
-        <v>0.03460111578652106</v>
+        <v>0.03151848176517611</v>
       </c>
       <c r="D75">
-        <v>-0.02561929280885725</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.0316070193390985</v>
+      </c>
+      <c r="E75">
+        <v>-0.06173443997245646</v>
+      </c>
+      <c r="F75">
+        <v>0.01283767330451926</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.07934368367457811</v>
+        <v>0.09262925371975463</v>
       </c>
       <c r="C77">
-        <v>0.01500334259956761</v>
+        <v>0.01085006474224915</v>
       </c>
       <c r="D77">
-        <v>-0.1231013437044252</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1229296392077488</v>
+      </c>
+      <c r="E77">
+        <v>-0.05325225530055044</v>
+      </c>
+      <c r="F77">
+        <v>0.05221398730118939</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09719662020241801</v>
+        <v>0.09855827922707354</v>
       </c>
       <c r="C78">
-        <v>0.04412309117577928</v>
+        <v>0.04065898936481709</v>
       </c>
       <c r="D78">
-        <v>-0.1160813628306207</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1144224924193183</v>
+      </c>
+      <c r="E78">
+        <v>-0.08121197139957267</v>
+      </c>
+      <c r="F78">
+        <v>0.04455387577495046</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1682291509881068</v>
+        <v>0.1638516821342477</v>
       </c>
       <c r="C79">
-        <v>0.03200623521564088</v>
+        <v>0.02897663460815508</v>
       </c>
       <c r="D79">
-        <v>-0.0111884693735614</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01696902016762162</v>
+      </c>
+      <c r="E79">
+        <v>-0.05096065861841933</v>
+      </c>
+      <c r="F79">
+        <v>0.00715304414184143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08019053745264831</v>
+        <v>0.07889119307388612</v>
       </c>
       <c r="C80">
-        <v>0.003901520307332</v>
+        <v>0.001495741289654635</v>
       </c>
       <c r="D80">
-        <v>-0.05070626353400186</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0516004169588843</v>
+      </c>
+      <c r="E80">
+        <v>-0.03581483934983364</v>
+      </c>
+      <c r="F80">
+        <v>-0.04983383848372226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1178860068885818</v>
+        <v>0.111811915683616</v>
       </c>
       <c r="C81">
-        <v>0.03648834943539798</v>
+        <v>0.03486784188410043</v>
       </c>
       <c r="D81">
-        <v>-0.004647635799113905</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01038659367561363</v>
+      </c>
+      <c r="E81">
+        <v>-0.05477022171688511</v>
+      </c>
+      <c r="F81">
+        <v>0.001581718450765005</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1637062933979693</v>
+        <v>0.1614372202173967</v>
       </c>
       <c r="C82">
-        <v>0.03189736550227801</v>
+        <v>0.02957653440984875</v>
       </c>
       <c r="D82">
-        <v>-0.003913493854817715</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.004668082065003008</v>
+      </c>
+      <c r="E82">
+        <v>-0.03947350321565787</v>
+      </c>
+      <c r="F82">
+        <v>0.08756096933034695</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05615591386326003</v>
+        <v>0.05192417599413787</v>
       </c>
       <c r="C83">
-        <v>0.005485791529645841</v>
+        <v>0.003592274108383553</v>
       </c>
       <c r="D83">
-        <v>-0.0380585283294476</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03809942537370285</v>
+      </c>
+      <c r="E83">
+        <v>0.0108420792226802</v>
+      </c>
+      <c r="F83">
+        <v>-0.02939418739678549</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05769624923303595</v>
+        <v>0.05378325422505878</v>
       </c>
       <c r="C84">
-        <v>0.01402750211733382</v>
+        <v>0.0112030940415395</v>
       </c>
       <c r="D84">
-        <v>-0.07331579792575667</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07449509614264911</v>
+      </c>
+      <c r="E84">
+        <v>-0.02032268846400487</v>
+      </c>
+      <c r="F84">
+        <v>0.0006678176486084076</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1401927358995429</v>
+        <v>0.1346699640698383</v>
       </c>
       <c r="C85">
-        <v>0.03532908006229682</v>
+        <v>0.03306264042300402</v>
       </c>
       <c r="D85">
-        <v>-0.007215091950302651</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01157523657624797</v>
+      </c>
+      <c r="E85">
+        <v>-0.04792995615424184</v>
+      </c>
+      <c r="F85">
+        <v>0.05508422827845458</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08214028885831798</v>
+        <v>0.07934762366472975</v>
       </c>
       <c r="C86">
-        <v>-0.004526883068452078</v>
+        <v>-0.007696933214356386</v>
       </c>
       <c r="D86">
-        <v>-0.02466925601103843</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05184656621877013</v>
+      </c>
+      <c r="E86">
+        <v>-0.08308727384410068</v>
+      </c>
+      <c r="F86">
+        <v>-0.7922951591259013</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.08888104833512352</v>
+        <v>0.08887228492669541</v>
       </c>
       <c r="C87">
-        <v>0.02652956866548713</v>
+        <v>0.02188119923605946</v>
       </c>
       <c r="D87">
-        <v>-0.08364414668424282</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0878610364112538</v>
+      </c>
+      <c r="E87">
+        <v>0.05809378022893794</v>
+      </c>
+      <c r="F87">
+        <v>0.08894428059355546</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06176927623931364</v>
+        <v>0.06102499447037513</v>
       </c>
       <c r="C88">
-        <v>0.006853591458881145</v>
+        <v>0.00433190140852598</v>
       </c>
       <c r="D88">
-        <v>-0.05387318841928551</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.05338690501597824</v>
+      </c>
+      <c r="E88">
+        <v>-0.0337619991491668</v>
+      </c>
+      <c r="F88">
+        <v>0.0009128297782529918</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.127679639876755</v>
+        <v>0.1331272517977322</v>
       </c>
       <c r="C89">
-        <v>0.01421627987065762</v>
+        <v>0.01968684069089235</v>
       </c>
       <c r="D89">
-        <v>0.2301500768812511</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2345871014057669</v>
+      </c>
+      <c r="E89">
+        <v>0.09143492561074226</v>
+      </c>
+      <c r="F89">
+        <v>0.0172312573237619</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1485038548021087</v>
+        <v>0.1605407774447324</v>
       </c>
       <c r="C90">
-        <v>0.03546980236289418</v>
+        <v>0.04201657369244975</v>
       </c>
       <c r="D90">
-        <v>0.2560180422773561</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.259690706868378</v>
+      </c>
+      <c r="E90">
+        <v>0.119319915637292</v>
+      </c>
+      <c r="F90">
+        <v>0.02413541460306712</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1254287081820569</v>
+        <v>0.1211154916661958</v>
       </c>
       <c r="C91">
-        <v>0.0260808153423456</v>
+        <v>0.02487822346083455</v>
       </c>
       <c r="D91">
-        <v>0.01991244638812744</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01543975749266907</v>
+      </c>
+      <c r="E91">
+        <v>-0.0561843766171822</v>
+      </c>
+      <c r="F91">
+        <v>-0.02544824710262554</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1495410673937813</v>
+        <v>0.1535818003573432</v>
       </c>
       <c r="C92">
-        <v>0.02653619239625362</v>
+        <v>0.03249664401712974</v>
       </c>
       <c r="D92">
-        <v>0.2819596239893767</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.285165100323301</v>
+      </c>
+      <c r="E92">
+        <v>0.1096107812112523</v>
+      </c>
+      <c r="F92">
+        <v>0.007610936077715132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1532781203025743</v>
+        <v>0.1631470448762182</v>
       </c>
       <c r="C93">
-        <v>0.03158733865398593</v>
+        <v>0.03674107372471629</v>
       </c>
       <c r="D93">
-        <v>0.2491832661232489</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2528913593945367</v>
+      </c>
+      <c r="E93">
+        <v>0.07265448551335958</v>
+      </c>
+      <c r="F93">
+        <v>0.02173840879331362</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1294187298674165</v>
+        <v>0.1218500998274158</v>
       </c>
       <c r="C94">
-        <v>0.03067564366112052</v>
+        <v>0.02720161267936556</v>
       </c>
       <c r="D94">
-        <v>-0.03803371554757312</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04260240669147942</v>
+      </c>
+      <c r="E94">
+        <v>-0.0635026397982856</v>
+      </c>
+      <c r="F94">
+        <v>0.01582185238708648</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.126429543608534</v>
+        <v>0.1291960932746855</v>
       </c>
       <c r="C95">
-        <v>0.01285562457403582</v>
+        <v>0.007533565356120272</v>
       </c>
       <c r="D95">
-        <v>-0.09415529528907501</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1058716866353114</v>
+      </c>
+      <c r="E95">
+        <v>-0.07016812709575536</v>
+      </c>
+      <c r="F95">
+        <v>-0.02618396382468031</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1560335848097062</v>
+        <v>0.1421635908292308</v>
       </c>
       <c r="C96">
-        <v>-0.9818398493510035</v>
+        <v>-0.9828818886937994</v>
       </c>
       <c r="D96">
-        <v>0.03418472665623685</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05693459375026996</v>
+      </c>
+      <c r="E96">
+        <v>-0.05216292357181331</v>
+      </c>
+      <c r="F96">
+        <v>0.04546987923066517</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1895991089550678</v>
+        <v>0.193560382695968</v>
       </c>
       <c r="C97">
-        <v>0.002387588893428624</v>
+        <v>0.0001560761811426023</v>
       </c>
       <c r="D97">
-        <v>0.02087396535903972</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.02581272765337126</v>
+      </c>
+      <c r="E97">
+        <v>-0.01217857395238161</v>
+      </c>
+      <c r="F97">
+        <v>-0.1889317369098756</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1944808302168793</v>
+        <v>0.2005520888946542</v>
       </c>
       <c r="C98">
-        <v>0.01619588492461684</v>
+        <v>0.01118630532170046</v>
       </c>
       <c r="D98">
-        <v>-0.01063436405796399</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01284221517859366</v>
+      </c>
+      <c r="E98">
+        <v>0.09093915950812997</v>
+      </c>
+      <c r="F98">
+        <v>-0.08989020166213631</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05781310229446456</v>
+        <v>0.05737654962373984</v>
       </c>
       <c r="C99">
-        <v>-0.000214068862320154</v>
+        <v>-0.0023416577925963</v>
       </c>
       <c r="D99">
-        <v>-0.04200145253494704</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.04710839139945767</v>
+      </c>
+      <c r="E99">
+        <v>-0.02901585946378967</v>
+      </c>
+      <c r="F99">
+        <v>-0.007024332199243858</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1439351197524844</v>
+        <v>0.1333118108621866</v>
       </c>
       <c r="C100">
-        <v>-0.03638055787372867</v>
+        <v>-0.04590440432316022</v>
       </c>
       <c r="D100">
-        <v>-0.4235555688934728</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3805723779373889</v>
+      </c>
+      <c r="E100">
+        <v>0.8860950791986402</v>
+      </c>
+      <c r="F100">
+        <v>-0.00554071878440911</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02530627523539425</v>
+        <v>0.0275469352574346</v>
       </c>
       <c r="C101">
-        <v>0.009774541036407122</v>
+        <v>0.009057169933454921</v>
       </c>
       <c r="D101">
-        <v>-0.03015685087975851</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03213998761286095</v>
+      </c>
+      <c r="E101">
+        <v>-0.01721705816624861</v>
+      </c>
+      <c r="F101">
+        <v>-0.0203993300257559</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
